--- a/biology/Botanique/Rat-de-cave/Rat-de-cave.xlsx
+++ b/biology/Botanique/Rat-de-cave/Rat-de-cave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rat-de-cave est un terme désignant, selon le contexte, soit un cambrioleur[1], soit un des agents des douanes, soit une bougie, soit un danseur de bebop. Son pluriel est rats-de-cave. L'orthographe sans tiret (rat de cave) est également tolérée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rat-de-cave est un terme désignant, selon le contexte, soit un cambrioleur, soit un des agents des douanes, soit une bougie, soit un danseur de bebop. Son pluriel est rats-de-cave. L'orthographe sans tiret (rat de cave) est également tolérée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Bougie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rat-de-cave est avant tout une mèche d'éclairage, décrite dans le TLFI comme étant une « bougie mince et longue, enroulée sur elle-même, dont on se sert pour éclairer une cave »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rat-de-cave est avant tout une mèche d'éclairage, décrite dans le TLFI comme étant une « bougie mince et longue, enroulée sur elle-même, dont on se sert pour éclairer une cave ».
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Agent des douanes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le contexte spécifique du droit, ce nom désigne aussi une personne.
-Le service des contributions indirectes, outre les droits de douane, possède un service s'occupant uniquement des droits sur les vins, le tabac et les boissons alcoolisées[3]. 
+Le service des contributions indirectes, outre les droits de douane, possède un service s'occupant uniquement des droits sur les vins, le tabac et les boissons alcoolisées. 
 Les agents mobiles, contrôleurs ou inspecteurs, qui y sont affectés, sont organisés en brigades volantes. Celles-ci arraisonnaient voitures et camions, fouillaient et perquisitionnaient les fermes suspectées en campagne. Cette fouille débutait souvent par une visite de la cave ; ces personnes zélées furent surnommées "rats de cave".
 </t>
         </is>
@@ -575,10 +591,12 @@
           <t>Danse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les danseurs de bebop sont parfois surnommés rats-de-cave, d'après le nom d'une troupe de danse fondée par Jano Merry.
-Georges Brassens a composé et chanté une Élégie à un rat de cave[4], chanson  de 1979, parue aux Éditions musicales 57, en hommage à une amie décédée, l'épouse de Moustache.
+Georges Brassens a composé et chanté une Élégie à un rat de cave, chanson  de 1979, parue aux Éditions musicales 57, en hommage à une amie décédée, l'épouse de Moustache.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Livre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rat de Cave est le titre d'un livre de Gwenlan, édition Nicolion, 2007   (ISBN 978-2356220042).
 Réédité par Edilivre en 2009, (ISBN 978-2812115332) l'auteur raconte sa plongée dans l'alcoolisme et sa sortie. L'approche est originale dans la forme et dans le fond. L'ouvrage ne prétend pas guérir qui que ce soit ni empêcher le naufrage de quiconque. Il permet surtout au non-alcoolique de comprendre le sens du mot maladie et de faire abstraction des notions de volonté, de honte, de culpabilité.
@@ -639,9 +659,11 @@
           <t>Téléfilm</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rats de cave est un téléfilm de 52 minutes, produit et diffusé par France 3 (FR3 à l'époque) en 1981. Réalisé par Jean-Claude Morin, sur un scénario qu'il a écrit avec Marie-France Briselance, il raconte la lutte drolatique entre un inspecteur des impôts, Armagnac, interprété par Sim, et sa brigade sujette aux "bavures", interprétée par le groupe de rock Ange, et un gang de bouilleurs qui pratiquent un trafic d'alcool à grande échelle — les flacons sont dissimulés à l'intérieur de meules de comté évidées —, sous la direction éhontée de Bourguignon, interprété par Romain Bouteille [5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rats de cave est un téléfilm de 52 minutes, produit et diffusé par France 3 (FR3 à l'époque) en 1981. Réalisé par Jean-Claude Morin, sur un scénario qu'il a écrit avec Marie-France Briselance, il raconte la lutte drolatique entre un inspecteur des impôts, Armagnac, interprété par Sim, et sa brigade sujette aux "bavures", interprétée par le groupe de rock Ange, et un gang de bouilleurs qui pratiquent un trafic d'alcool à grande échelle — les flacons sont dissimulés à l'intérieur de meules de comté évidées —, sous la direction éhontée de Bourguignon, interprété par Romain Bouteille .
 </t>
         </is>
       </c>
